--- a/data/trans_dic/P44A$otras-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Habitat-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.3726370175198979</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.004585377194487579</v>
+        <v>0.00458537719448758</v>
       </c>
     </row>
     <row r="5">
@@ -675,28 +675,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0711500050692873</v>
+        <v>0.07090391687477679</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1877913109098063</v>
+        <v>0.1922716550594693</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06167744149853619</v>
+        <v>0.06168024957896186</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2075226808200152</v>
+        <v>0.1942351175297675</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1030494994350979</v>
+        <v>0.1052199525058727</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2531700739833404</v>
+        <v>0.2454798278287807</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5500773415681917</v>
+        <v>0.5476545952059072</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5451715126560391</v>
+        <v>0.5371745235403542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02839527850319891</v>
+        <v>0.03217679878123506</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.465890813691413</v>
+        <v>0.4619205145911062</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6064830968333853</v>
+        <v>0.6363176123713365</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01771396895225218</v>
+        <v>0.01789974127157146</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4140854762257057</v>
+        <v>0.4332193695074775</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5229378711518604</v>
+        <v>0.5056466881897197</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01609542906439531</v>
+        <v>0.01744084719503588</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.1827781124612838</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.003081085412925526</v>
+        <v>0.003081085412925527</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.2520460628007716</v>
@@ -787,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02095280634696499</v>
+        <v>0.02062873490675899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003340200805724174</v>
+        <v>0.003339707486246189</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2163110970159482</v>
+        <v>0.2107537060947987</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06513947428240045</v>
+        <v>0.0624597831521372</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1575492603228388</v>
+        <v>0.1397015612673468</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05500345612313196</v>
+        <v>0.05637895636842015</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001900197510013387</v>
+        <v>0.002081531424719077</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.262940767156412</v>
+        <v>0.2552633602673795</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2037203428457845</v>
+        <v>0.1992777739799765</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03152834519129997</v>
+        <v>0.03400221442421491</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5670438622573761</v>
+        <v>0.5655616131752853</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3456277993089518</v>
+        <v>0.3601342300230135</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02076126110852547</v>
+        <v>0.01550813449186939</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.377980351766806</v>
+        <v>0.3933852000504134</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2202338716586406</v>
+        <v>0.2144559839596883</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01858299895295227</v>
+        <v>0.0194321887618283</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07444015372114506</v>
+        <v>0.07988272534290143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1005951746104464</v>
+        <v>0.09877649015834546</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1637298989077798</v>
+        <v>0.1635135503727306</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04976726624086611</v>
+        <v>0.05130117018468591</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1453570582899896</v>
+        <v>0.1512171458347288</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1063662376861174</v>
+        <v>0.1034531662741975</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003256120707307683</v>
+        <v>0.003231627752026207</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4519065220120405</v>
+        <v>0.4632276469066929</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4182794946163137</v>
+        <v>0.4408326343587158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04881557041917055</v>
+        <v>0.03915635892895838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5465176724222034</v>
+        <v>0.547738621485404</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3872720782994533</v>
+        <v>0.3937155073079598</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04966728590154299</v>
+        <v>0.05670058529546531</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4212949620565967</v>
+        <v>0.4223680263303464</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3347233576332265</v>
+        <v>0.3409321757649129</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03628821129903181</v>
+        <v>0.03534139310139438</v>
       </c>
     </row>
     <row r="13">
@@ -1002,24 +1002,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04800703688631482</v>
+        <v>0.06858899864365124</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1633971903969647</v>
+        <v>0.1500665433042395</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.2229193910735172</v>
+        <v>0.2322177130728222</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1489301132166778</v>
+        <v>0.1503258805585827</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.1553798150692667</v>
+        <v>0.1576606418816671</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1758540757931953</v>
+        <v>0.1879961125505946</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
     </row>
@@ -1031,24 +1031,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2710668357955686</v>
+        <v>0.2866196856806474</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.40900449918998</v>
+        <v>0.400776718131496</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.6244259217613735</v>
+        <v>0.6104159669819962</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4829603101515461</v>
+        <v>0.4881530767231146</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.3759653163986248</v>
+        <v>0.3732388734872352</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.373039044194509</v>
+        <v>0.3782600214333411</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
     </row>
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1641662239015072</v>
+        <v>0.1624285241887999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002127586739985627</v>
+        <v>0.002065606693984821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2630144275260097</v>
+        <v>0.2562301120616553</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1946421719066587</v>
+        <v>0.1865110828095554</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0009378360470028811</v>
+        <v>0.001384139975969613</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1967439282811159</v>
+        <v>0.1969485642965454</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.190838787744294</v>
+        <v>0.1879438834550776</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002489087053507432</v>
+        <v>0.002468882456616387</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.30483426347349</v>
+        <v>0.3089244845355781</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01547192607764589</v>
+        <v>0.01533868323371247</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4664131157006827</v>
+        <v>0.4417136915463675</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3643862360407529</v>
+        <v>0.3587874858519958</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01065133897816195</v>
+        <v>0.01042322719106568</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3211729366833092</v>
+        <v>0.3186196956740068</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2972721437866863</v>
+        <v>0.2972554138515522</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01005435383558533</v>
+        <v>0.00961512964777651</v>
       </c>
     </row>
     <row r="19">
@@ -1387,28 +1387,28 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5801</v>
+        <v>5939</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5305</v>
+        <v>4965</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3133</v>
+        <v>3199</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14292</v>
+        <v>13858</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8362</v>
+        <v>8325</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16840</v>
+        <v>16593</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2863</v>
+        <v>3244</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7082</v>
+        <v>7021</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15504</v>
+        <v>16266</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1876</v>
+        <v>1895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12589</v>
+        <v>13170</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29521</v>
+        <v>28545</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3327</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="8">
@@ -1534,28 +1534,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>514</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7867</v>
+        <v>7665</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2194</v>
+        <v>2103</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9886</v>
+        <v>8766</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4025</v>
+        <v>4126</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>559</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6936</v>
+        <v>6734</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8048</v>
+        <v>7872</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4854</v>
+        <v>5235</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20623</v>
+        <v>20569</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11639</v>
+        <v>12128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2913</v>
+        <v>2176</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23718</v>
+        <v>24685</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16116</v>
+        <v>15694</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5469</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="12">
@@ -1675,31 +1675,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1962</v>
+        <v>2105</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3097</v>
+        <v>3041</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4326</v>
+        <v>4320</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1010</v>
+        <v>1042</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7671</v>
+        <v>7980</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5434</v>
+        <v>5286</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15">
@@ -1710,31 +1710,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11910</v>
+        <v>12208</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12878</v>
+        <v>13573</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5764</v>
+        <v>4623</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14439</v>
+        <v>14471</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7862</v>
+        <v>7993</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4226</v>
+        <v>4824</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22234</v>
+        <v>22290</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17101</v>
+        <v>17419</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7372</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="16">
@@ -1819,24 +1819,24 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1989</v>
+        <v>2842</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9559</v>
+        <v>8779</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>6456</v>
+        <v>6725</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5449</v>
+        <v>5500</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>10938</v>
+        <v>11098</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16722</v>
+        <v>17877</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
     </row>
@@ -1848,24 +1848,24 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11231</v>
+        <v>11875</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23928</v>
+        <v>23447</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>18085</v>
+        <v>17679</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17670</v>
+        <v>17860</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>26465</v>
+        <v>26273</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>35472</v>
+        <v>35969</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
     </row>
@@ -1951,31 +1951,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26215</v>
+        <v>25938</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1215</v>
+        <v>1179</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28130</v>
+        <v>27404</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>22603</v>
+        <v>21659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>495</v>
+        <v>731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>42559</v>
+        <v>42604</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>52636</v>
+        <v>51837</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2736</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="23">
@@ -1986,31 +1986,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>48678</v>
+        <v>49331</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8832</v>
+        <v>8756</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>49883</v>
+        <v>47242</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42315</v>
+        <v>41665</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5627</v>
+        <v>5506</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>69475</v>
+        <v>68923</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>81991</v>
+        <v>81987</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11051</v>
+        <v>10568</v>
       </c>
     </row>
     <row r="24">
